--- a/Data/test_data.xlsx
+++ b/Data/test_data.xlsx
@@ -477,7 +477,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
